--- a/E2/tabelas.xlsx
+++ b/E2/tabelas.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18027"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gonxaluh\Documents\Student\LEIC\AMS\amsxpto\E2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="10515" windowHeight="4695"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
   <si>
     <t>UC1: Registo de Cliente</t>
   </si>
@@ -76,12 +81,180 @@
   </si>
   <si>
     <t>Remover utilizador.</t>
+  </si>
+  <si>
+    <t>Cenário Principal</t>
+  </si>
+  <si>
+    <t>Cenários Alternativos</t>
+  </si>
+  <si>
+    <t>Cenários de Exceção</t>
+  </si>
+  <si>
+    <t>UC3</t>
+  </si>
+  <si>
+    <t>Use Case ID</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Atores</t>
+  </si>
+  <si>
+    <t>Precondições</t>
+  </si>
+  <si>
+    <t>Pos-condições</t>
+  </si>
+  <si>
+    <t>UC5</t>
+  </si>
+  <si>
+    <t>Realizar Visita</t>
+  </si>
+  <si>
+    <t>O cliente escolhe e reserva a visita. O parceiro confirma a sua disponibilidade e realiza a visita.</t>
+  </si>
+  <si>
+    <t>É cobrada a visita ao cliente. O parceiro é pago pela visita.</t>
+  </si>
+  <si>
+    <t>O cliente e o parceiro estão registados na plataforma.</t>
+  </si>
+  <si>
+    <t>Cliente, Parceiro, DAF</t>
+  </si>
+  <si>
+    <t>Reservar Visita</t>
+  </si>
+  <si>
+    <t>O cliente escolhe a visita.</t>
+  </si>
+  <si>
+    <t>UC4</t>
+  </si>
+  <si>
+    <t>Cobrada a taxa de reserva</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>O cliente requisita hotspot.</t>
+  </si>
+  <si>
+    <t>Confirmar Disponibilidade</t>
+  </si>
+  <si>
+    <t>O parceiro confirma a sua disponibilidade</t>
+  </si>
+  <si>
+    <t>O parceiro recebe um pedido de confirmação de disponibilidade.</t>
+  </si>
+  <si>
+    <t>O parceiro não responde dentro de 4h</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>A visita é realizada.</t>
+  </si>
+  <si>
+    <t>UC6</t>
+  </si>
+  <si>
+    <t>UC10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobrar Visita </t>
+  </si>
+  <si>
+    <t>Cálculo do valor da visita.</t>
+  </si>
+  <si>
+    <t>Envio do pedido de débito na conta do cliente.</t>
+  </si>
+  <si>
+    <t>Envio do recibo da visita ao cliente.</t>
+  </si>
+  <si>
+    <t>Hotspot falha durante a visita.</t>
+  </si>
+  <si>
+    <t>1a.1</t>
+  </si>
+  <si>
+    <t>É descontado o valor do hotspot no preço da visita.</t>
+  </si>
+  <si>
+    <t>Pagar ao parceiro</t>
+  </si>
+  <si>
+    <t>O parceiro devolve o hotspot.</t>
+  </si>
+  <si>
+    <t>Envio do pedido de crédito na conta do parceiro.</t>
+  </si>
+  <si>
+    <t>Notificação do crédito.</t>
+  </si>
+  <si>
+    <t>Hotspot não é devolvido no prazo esperado.</t>
+  </si>
+  <si>
+    <t>Por cada 24h é pedido um esclarecimento ao parceiro.</t>
+  </si>
+  <si>
+    <t>1a.1.1</t>
+  </si>
+  <si>
+    <t>1a.1.2</t>
+  </si>
+  <si>
+    <t>É aplicada uma penalização.</t>
+  </si>
+  <si>
+    <t>Não é aplicada uma penalização.</t>
+  </si>
+  <si>
+    <t>1a.1.3</t>
+  </si>
+  <si>
+    <t>Penalização ao critério do coordenador do DAP</t>
+  </si>
+  <si>
+    <t>É enviado um pedido de avaliação ao cliente.</t>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>O cliente não envia a avaliação dentro de 48h</t>
+  </si>
+  <si>
+    <t>UC9</t>
+  </si>
+  <si>
+    <t>Avaliar Visita</t>
+  </si>
+  <si>
+    <t>O cliente envia a avaliação.</t>
+  </si>
+  <si>
+    <t>O cliente não envia a avaliação dentro de 48h.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,7 +272,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -107,12 +280,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,6 +321,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -170,7 +372,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,9 +405,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,6 +457,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -414,12 +650,481 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="63.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="5">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="5">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="5">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="5">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -435,87 +1140,87 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
